--- a/data/trans_orig/P62AS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C050E4-8BEA-487D-AB17-3F08A4E87E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93B55251-F0B3-4CF4-90E8-3E960D9186BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9028321-F06A-46BA-A8CF-EA8DDB23A3E2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5E4E85F-B583-455B-AE62-21D5F0C39CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="61">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 2 en 2007 (Tasa respuesta: 0,11%)</t>
   </si>
@@ -208,22 +208,19 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>58,34%</t>
+    <t>55,84%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>66,47%</t>
+    <t>66,96%</t>
   </si>
 </sst>
 </file>
@@ -635,7 +632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4725B6-CC77-47FF-ABE1-9CC033C4C6C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F5F87-EF20-4006-A720-19CAC19B8987}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1558,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D361629A-CEF4-42D0-B832-97080A11FB5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C4CB40-74E9-4796-86CA-3DA92BAA1945}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2481,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C377FC-945F-4E9C-9192-3B32B7A4D934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7831AC-25CC-41FD-B3FD-36F151802FE7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3267,7 +3264,7 @@
         <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3282,7 +3279,7 @@
         <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3307,13 @@
         <v>1853</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -3325,13 +3322,13 @@
         <v>1853</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62AS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93B55251-F0B3-4CF4-90E8-3E960D9186BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FBC8A5-310E-455E-B14B-AC97D0E3BE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5E4E85F-B583-455B-AE62-21D5F0C39CEA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7012F8CB-AFA7-43DD-B6CB-0C3A1FF79154}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="62">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 2 en 2007 (Tasa respuesta: 0,11%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>59,07%</t>
   </si>
   <si>
-    <t>15,22%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -103,7 +103,7 @@
     <t>40,93%</t>
   </si>
   <si>
-    <t>84,78%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -127,19 +127,19 @@
     <t>42,75%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -151,13 +151,13 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>30,45%</t>
+    <t>31,04%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>69,55%</t>
+    <t>68,96%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -172,19 +172,19 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>37,04%</t>
+    <t>23,68%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>76,32%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 2 en 2015 (Tasa respuesta: 0,11%)</t>
+    <t>Población según el tipo de pensión que recibe / respuesta 2 en 2016 (Tasa respuesta: 0,11%)</t>
   </si>
   <si>
     <t>17,06%</t>
@@ -208,19 +208,22 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>55,84%</t>
+    <t>57,04%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>19,27%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>66,96%</t>
+    <t>65,93%</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F5F87-EF20-4006-A720-19CAC19B8987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93F3BCF-781B-408D-84EC-8790D73DC5DD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1555,7 +1558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C4CB40-74E9-4796-86CA-3DA92BAA1945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46EC0F9-BFF6-41CB-98E4-36F6D65192FA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2478,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7831AC-25CC-41FD-B3FD-36F151802FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAEA546-1DEB-48E2-B31C-676DFC95507D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3264,7 +3267,7 @@
         <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3279,7 +3282,7 @@
         <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3310,13 @@
         <v>1853</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -3322,13 +3325,13 @@
         <v>1853</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
